--- a/datasets/CSO/DublinAirport.xlsx
+++ b/datasets/CSO/DublinAirport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/Dropbox/R Projects/CT5102/datasets/CSO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C83D512E-6B5D-2C4F-95AF-E1C838772456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EA13CCCE-CB85-A548-A7A5-D4EB7DD3FEFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="980" windowWidth="27640" windowHeight="16060"/>
   </bookViews>
